--- a/OREI_files/10-herd data/herd-level data/BTM_culture_results_1_11_2021_by herd_not formatted.xlsx
+++ b/OREI_files/10-herd data/herd-level data/BTM_culture_results_1_11_2021_by herd_not formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI/10-herd data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/herd-level data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{37E1B421-2E7B-4D00-BE8A-6B59E02F60A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5CEA18E-A9D3-4710-A61E-8016415E1390}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{37E1B421-2E7B-4D00-BE8A-6B59E02F60A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A1A8382-0A41-4BBB-9984-40CF03A3D2A0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AE139B4A-1D75-486B-A414-4C31211C0D03}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{AE139B4A-1D75-486B-A414-4C31211C0D03}"/>
   </bookViews>
   <sheets>
     <sheet name="milk_raw" sheetId="3" r:id="rId1"/>
@@ -845,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8290A77-6B08-4382-BC47-A86E615F129B}">
   <dimension ref="A1:BG331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -61331,7 +61331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7140A679-359F-43DE-9E7F-9FF6DABB0FF1}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -61344,7 +61344,7 @@
     <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="4.36328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
